--- a/results/MultiObjBaselines/communityStratifiedFMODGWO_facebook_hv_per_iteration.xlsx
+++ b/results/MultiObjBaselines/communityStratifiedFMODGWO_facebook_hv_per_iteration.xlsx
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9991426142345199</v>
+        <v>0.9005379886256079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6694403694803956</v>
+        <v>0.8687704132923324</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3522239460542874</v>
+        <v>0.6830336181654519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.403249227893121</v>
+        <v>0.3303575228356574</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.087614506310631</v>
+        <v>0.4669370812106808</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056679471180112</v>
+        <v>1.057895833274287</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8500520038452852</v>
+        <v>1.075636520084763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6056320862747243</v>
+        <v>0.5091913073712683</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6696569261436214</v>
+        <v>0.6664259747125331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5182582194907441</v>
+        <v>0.7749975869855779</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6043204351706356</v>
+        <v>0.6569598287846539</v>
       </c>
       <c r="C7" t="n">
-        <v>1.062508578251887</v>
+        <v>0.6863076658197367</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7598364371737628</v>
+        <v>0.4832591077478287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4900138758424645</v>
+        <v>1.046677594935861</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8991950806673228</v>
+        <v>0.5004410081455289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4823454689741848</v>
+        <v>0.5159330486442956</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6488615036425958</v>
+        <v>1.211645981417091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8336343946897251</v>
+        <v>0.7303942477236227</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4600075697412958</v>
+        <v>1.049921459644569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6404096206972285</v>
+        <v>0.7858342695058677</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3732841894428202</v>
+        <v>0.6997374247013486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4976952833410355</v>
+        <v>0.7356377743447249</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.958973697632294</v>
+        <v>0.5509786105304932</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7971061609949209</v>
+        <v>0.664604502782993</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5178167390245503</v>
+        <v>0.7243879954333374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8147213584750861</v>
+        <v>0.52490330266062</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7519046048889718</v>
+        <v>0.7416141110282455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6445067458023701</v>
+        <v>0.8080096792622755</v>
       </c>
     </row>
     <row r="16">
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7487603113129337</v>
+        <v>1.156018172298633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5879013635067178</v>
+        <v>0.816254263397583</v>
       </c>
     </row>
     <row r="17">
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7864264666592047</v>
+        <v>1.134034569607792</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8792780920030243</v>
+        <v>0.9669481691388213</v>
       </c>
     </row>
     <row r="18">
@@ -627,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6047555805972239</v>
+        <v>0.5211578714847298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5985938660037889</v>
+        <v>0.8011225199299686</v>
       </c>
     </row>
     <row r="19">
@@ -638,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7556463486613412</v>
+        <v>0.9243491715362321</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8727843608637205</v>
+        <v>0.7843494412926998</v>
       </c>
     </row>
     <row r="20">
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3240444276263901</v>
+        <v>1.1536680394743</v>
       </c>
       <c r="C20" t="n">
-        <v>1.282264652769875</v>
+        <v>0.7544470548418347</v>
       </c>
     </row>
     <row r="21">
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6653556210642144</v>
+        <v>0.6705121730151555</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4912434847721483</v>
+        <v>0.570030525131789</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6308664469043571</v>
+        <v>0.6794476094883973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5188307754853932</v>
+        <v>0.7389238090058938</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8878186932159516</v>
+        <v>1.013191786746831</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3270380356166995</v>
+        <v>0.6750302486111248</v>
       </c>
     </row>
     <row r="24">
@@ -693,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8549618492548279</v>
+        <v>0.5858725426274868</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6380084448370993</v>
+        <v>0.9496551284436657</v>
       </c>
     </row>
     <row r="25">
@@ -704,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.241719554112739</v>
+        <v>0.7914973114418816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3611979059077614</v>
+        <v>0.8056711722293461</v>
       </c>
     </row>
     <row r="26">
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8850350012737301</v>
+        <v>0.6132985902069774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7888015542411655</v>
+        <v>0.7856942804324836</v>
       </c>
     </row>
     <row r="27">
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8788595343280652</v>
+        <v>0.3879886241140848</v>
       </c>
       <c r="C27" t="n">
-        <v>0.790768769970424</v>
+        <v>0.8810891579494874</v>
       </c>
     </row>
     <row r="28">
@@ -737,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5427819258789659</v>
+        <v>0.6939069011204994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8865357286167208</v>
+        <v>1.337733456012624</v>
       </c>
     </row>
     <row r="29">
@@ -748,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9894377157594759</v>
+        <v>0.6141507095725312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.957349692308452</v>
+        <v>0.6512910151565879</v>
       </c>
     </row>
     <row r="30">
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9374320826638175</v>
+        <v>0.6287493693536389</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4766078388632398</v>
+        <v>0.7451271759806506</v>
       </c>
     </row>
     <row r="31">
@@ -770,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7559492328661417</v>
+        <v>0.6807839767965466</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3688145048310091</v>
+        <v>0.4363875100077677</v>
       </c>
     </row>
     <row r="32">
@@ -781,10 +781,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.621729915096519</v>
+        <v>0.7883630982864736</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8695125361792353</v>
+        <v>1.168819074136473</v>
       </c>
     </row>
     <row r="33">
@@ -792,10 +792,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4708141251960131</v>
+        <v>0.5180267276982851</v>
       </c>
       <c r="C33" t="n">
-        <v>1.024419621564435</v>
+        <v>0.3693964054589195</v>
       </c>
     </row>
     <row r="34">
@@ -803,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4142153248290622</v>
+        <v>1.236205715685599</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8082584437955633</v>
+        <v>0.6246412416773534</v>
       </c>
     </row>
     <row r="35">
@@ -814,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.038448661850648</v>
+        <v>0.8295617372615387</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5513204242905159</v>
+        <v>1.002691045360734</v>
       </c>
     </row>
     <row r="36">
@@ -825,10 +825,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7144930419921056</v>
+        <v>1.072817149565735</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6153601549083372</v>
+        <v>0.8524137273209821</v>
       </c>
     </row>
     <row r="37">
@@ -836,10 +836,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6253409346900781</v>
+        <v>1.263844445020021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6807546064675534</v>
+        <v>0.5154481260232031</v>
       </c>
     </row>
     <row r="38">
@@ -847,10 +847,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.047998322057815</v>
+        <v>0.6499649468530884</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9584697186498048</v>
+        <v>0.8301519048353416</v>
       </c>
     </row>
     <row r="39">
@@ -858,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7832833619920184</v>
+        <v>0.7699964978595448</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8496071993240666</v>
+        <v>0.2222534607028588</v>
       </c>
     </row>
     <row r="40">
@@ -869,10 +869,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7144425253277726</v>
+        <v>1.343408873445142</v>
       </c>
       <c r="C40" t="n">
-        <v>1.139907143206755</v>
+        <v>0.7360243095956648</v>
       </c>
     </row>
     <row r="41">
@@ -880,10 +880,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.883453227915462</v>
+        <v>0.8648627520930585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4993494828177684</v>
+        <v>0.3251189839140635</v>
       </c>
     </row>
     <row r="42">
@@ -891,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5796871607269656</v>
+        <v>0.6796736357271597</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4328043024244242</v>
+        <v>0.9526545322551132</v>
       </c>
     </row>
     <row r="43">
@@ -902,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7457955822663753</v>
+        <v>0.6315697340197229</v>
       </c>
       <c r="C43" t="n">
-        <v>0.64310313879325</v>
+        <v>0.787766467618887</v>
       </c>
     </row>
     <row r="44">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6771021659172508</v>
+        <v>0.6622793202388009</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4834750782372416</v>
+        <v>0.7708521324080913</v>
       </c>
     </row>
     <row r="45">
@@ -924,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7810422814332832</v>
+        <v>0.507483436063351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7910426540349826</v>
+        <v>0.8157124498896058</v>
       </c>
     </row>
     <row r="46">
@@ -935,10 +935,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9043756968201152</v>
+        <v>1.100940348596001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7307516042610535</v>
+        <v>0.8343988156289825</v>
       </c>
     </row>
     <row r="47">
@@ -946,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6751518619065868</v>
+        <v>1.040898175965167</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6092030485493424</v>
+        <v>0.7363573162356541</v>
       </c>
     </row>
     <row r="48">
@@ -957,10 +957,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6370959506693266</v>
+        <v>0.8850015238039218</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7634301637217145</v>
+        <v>0.7324094739869088</v>
       </c>
     </row>
     <row r="49">
@@ -968,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.095101267541668</v>
+        <v>1.394663925176951</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8082307987539498</v>
+        <v>1.249349178858779</v>
       </c>
     </row>
     <row r="50">
@@ -979,10 +979,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9979837615056615</v>
+        <v>0.5067889281149329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7765310772752705</v>
+        <v>0.9735686954136701</v>
       </c>
     </row>
     <row r="51">
@@ -990,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.025729289048677</v>
+        <v>0.9666399436415063</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6141010033233176</v>
+        <v>0.5806633283281385</v>
       </c>
     </row>
     <row r="52">
@@ -1001,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3669865174557564</v>
+        <v>1.394425863698579</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9202165790633747</v>
+        <v>0.693210521390729</v>
       </c>
     </row>
     <row r="53">
@@ -1012,10 +1012,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8420516518182233</v>
+        <v>0.5412333050032372</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9144805091549759</v>
+        <v>0.3817679450026162</v>
       </c>
     </row>
     <row r="54">
@@ -1023,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9687933239088703</v>
+        <v>1.115649401764788</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6505110995636457</v>
+        <v>0.5511367850190049</v>
       </c>
     </row>
     <row r="55">
@@ -1034,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.119642075841237</v>
+        <v>1.173155105886205</v>
       </c>
       <c r="C55" t="n">
-        <v>1.292926352136393</v>
+        <v>0.8005745868615143</v>
       </c>
     </row>
     <row r="56">
@@ -1045,10 +1045,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.350142157605245</v>
+        <v>0.9718584890531032</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6128637365148181</v>
+        <v>1.045481269559302</v>
       </c>
     </row>
     <row r="57">
@@ -1056,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5012382757278355</v>
+        <v>1.116508789279096</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9568339719223768</v>
+        <v>1.183908518558265</v>
       </c>
     </row>
     <row r="58">
@@ -1067,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9183378655577867</v>
+        <v>0.8363162211228249</v>
       </c>
       <c r="C58" t="n">
-        <v>1.138807473200773</v>
+        <v>0.3712557628801437</v>
       </c>
     </row>
     <row r="59">
@@ -1078,10 +1078,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5332795132622682</v>
+        <v>0.6765361821814286</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9933122375009338</v>
+        <v>0.6622372867249969</v>
       </c>
     </row>
     <row r="60">
@@ -1089,10 +1089,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5134698484393708</v>
+        <v>1.279939542328333</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5167279829133118</v>
+        <v>1.115890017108151</v>
       </c>
     </row>
     <row r="61">
@@ -1100,10 +1100,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6497537099209759</v>
+        <v>0.9558261816773886</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8075546094523932</v>
+        <v>0.7233736951396984</v>
       </c>
     </row>
     <row r="62">
@@ -1111,10 +1111,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3689821403195909</v>
+        <v>0.8440448279674142</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8000558360537617</v>
+        <v>1.034119926151759</v>
       </c>
     </row>
     <row r="63">
@@ -1122,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00035806308435</v>
+        <v>0.700291841350297</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9219872984394244</v>
+        <v>1.304529741586174</v>
       </c>
     </row>
     <row r="64">
@@ -1133,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.352887612471709</v>
+        <v>0.3837325164051464</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8709447744192291</v>
+        <v>0.5404453241530991</v>
       </c>
     </row>
     <row r="65">
@@ -1144,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5792707974671718</v>
+        <v>0.7027569435159627</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5591693956331959</v>
+        <v>0.7241035444244253</v>
       </c>
     </row>
     <row r="66">
@@ -1155,10 +1155,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8890178726828314</v>
+        <v>0.6918921243530871</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6612200740668157</v>
+        <v>0.602814806119667</v>
       </c>
     </row>
     <row r="67">
@@ -1166,10 +1166,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9022324258409158</v>
+        <v>0.9676434842714245</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5755957247747149</v>
+        <v>0.7855474904683412</v>
       </c>
     </row>
     <row r="68">
@@ -1177,10 +1177,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.352769626346477</v>
+        <v>0.3990125533460214</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5121161386516245</v>
+        <v>1.237978878662163</v>
       </c>
     </row>
     <row r="69">
@@ -1188,10 +1188,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8935131664097152</v>
+        <v>0.7053613668108873</v>
       </c>
       <c r="C69" t="n">
-        <v>0.749749655860843</v>
+        <v>0.5814082876860723</v>
       </c>
     </row>
     <row r="70">
@@ -1199,10 +1199,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5747326726640138</v>
+        <v>0.9013829957866692</v>
       </c>
       <c r="C70" t="n">
-        <v>1.275956856761169</v>
+        <v>1.185296697026782</v>
       </c>
     </row>
     <row r="71">
@@ -1210,10 +1210,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7857431778706454</v>
+        <v>0.7564886810101972</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7447321604629004</v>
+        <v>0.8852662390777669</v>
       </c>
     </row>
     <row r="72">
@@ -1221,10 +1221,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5777700608103007</v>
+        <v>0.9131292983812181</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7917927503163016</v>
+        <v>1.580518879620401</v>
       </c>
     </row>
     <row r="73">
@@ -1232,10 +1232,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55083879297474</v>
+        <v>0.5280719232055456</v>
       </c>
       <c r="C73" t="n">
-        <v>1.118391744714045</v>
+        <v>1.292812151915478</v>
       </c>
     </row>
     <row r="74">
@@ -1243,10 +1243,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7267182086861392</v>
+        <v>0.6904347894546097</v>
       </c>
       <c r="C74" t="n">
-        <v>0.625404984979903</v>
+        <v>1.062518690695158</v>
       </c>
     </row>
     <row r="75">
@@ -1254,10 +1254,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23483176394618</v>
+        <v>1.018810615371697</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6049851028021043</v>
+        <v>0.5793871704545968</v>
       </c>
     </row>
     <row r="76">
@@ -1265,10 +1265,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.166204471815229</v>
+        <v>1.026834218671293</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7012709584812917</v>
+        <v>0.6967864885266098</v>
       </c>
     </row>
     <row r="77">
@@ -1276,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7378574732413452</v>
+        <v>1.204984792257495</v>
       </c>
       <c r="C77" t="n">
-        <v>1.170814055760292</v>
+        <v>0.7208889644576176</v>
       </c>
     </row>
     <row r="78">
@@ -1287,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5407442939711322</v>
+        <v>0.663206431407473</v>
       </c>
       <c r="C78" t="n">
-        <v>1.097910672299898</v>
+        <v>0.8667194527930951</v>
       </c>
     </row>
     <row r="79">
@@ -1298,10 +1298,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8795797275411242</v>
+        <v>1.22460615826422</v>
       </c>
       <c r="C79" t="n">
-        <v>1.060220997026622</v>
+        <v>0.743702367126938</v>
       </c>
     </row>
     <row r="80">
@@ -1309,10 +1309,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.092567100231499</v>
+        <v>0.9252194636210187</v>
       </c>
       <c r="C80" t="n">
-        <v>1.434370070251958</v>
+        <v>0.7193317778868948</v>
       </c>
     </row>
     <row r="81">
@@ -1320,10 +1320,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5950845922068049</v>
+        <v>1.397787415077069</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9555842952598137</v>
+        <v>0.7200868239932106</v>
       </c>
     </row>
     <row r="82">
@@ -1331,10 +1331,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5557674261490806</v>
+        <v>0.5946817907809808</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6490141760481651</v>
+        <v>0.6892526068336788</v>
       </c>
     </row>
     <row r="83">
@@ -1342,10 +1342,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.049911069649029</v>
+        <v>1.013887535627976</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7890982650925901</v>
+        <v>0.8952908512751618</v>
       </c>
     </row>
     <row r="84">
@@ -1353,10 +1353,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5529360136139405</v>
+        <v>0.5845757288070118</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9972257000358642</v>
+        <v>1.208604165966024</v>
       </c>
     </row>
     <row r="85">
@@ -1364,10 +1364,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6975150413845759</v>
+        <v>1.22480672327579</v>
       </c>
       <c r="C85" t="n">
-        <v>0.562176180325014</v>
+        <v>0.6131386810437955</v>
       </c>
     </row>
     <row r="86">
@@ -1375,10 +1375,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.049886247863787</v>
+        <v>0.8806097548607124</v>
       </c>
       <c r="C86" t="n">
-        <v>1.032166135327059</v>
+        <v>0.5443442132867929</v>
       </c>
     </row>
     <row r="87">
@@ -1386,10 +1386,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.356636638970372</v>
+        <v>0.5480676912613582</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6212246346837558</v>
+        <v>0.6047874146193573</v>
       </c>
     </row>
     <row r="88">
@@ -1397,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5672162591303308</v>
+        <v>0.8805876380317581</v>
       </c>
       <c r="C88" t="n">
-        <v>0.71741579852683</v>
+        <v>1.039918100800824</v>
       </c>
     </row>
     <row r="89">
@@ -1408,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8658623093953695</v>
+        <v>1.222290056934387</v>
       </c>
       <c r="C89" t="n">
-        <v>1.147893247065036</v>
+        <v>0.5101188879428379</v>
       </c>
     </row>
     <row r="90">
@@ -1419,10 +1419,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7783515112890071</v>
+        <v>1.689011074538387</v>
       </c>
       <c r="C90" t="n">
-        <v>1.696982407756437</v>
+        <v>0.4395877277674125</v>
       </c>
     </row>
     <row r="91">
@@ -1430,10 +1430,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.030861960977837</v>
+        <v>0.6204878742729989</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6140687527746158</v>
+        <v>0.583595167417033</v>
       </c>
     </row>
     <row r="92">
@@ -1441,10 +1441,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6223124383711411</v>
+        <v>0.5680021630416896</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5682069739877698</v>
+        <v>0.8417628739206954</v>
       </c>
     </row>
     <row r="93">
@@ -1452,10 +1452,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9973308797637234</v>
+        <v>1.374123125356265</v>
       </c>
       <c r="C93" t="n">
-        <v>1.413144242451966</v>
+        <v>0.9952026596341333</v>
       </c>
     </row>
     <row r="94">
@@ -1463,10 +1463,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5800841591547631</v>
+        <v>1.040072301341485</v>
       </c>
       <c r="C94" t="n">
-        <v>1.212332198834674</v>
+        <v>0.9384038118846695</v>
       </c>
     </row>
     <row r="95">
@@ -1474,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4268775069054583</v>
+        <v>1.405831680564595</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8275190874550433</v>
+        <v>0.7234224542525438</v>
       </c>
     </row>
     <row r="96">
@@ -1485,10 +1485,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7524732508323037</v>
+        <v>1.139197269263315</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4333478914474348</v>
+        <v>0.7479899772967578</v>
       </c>
     </row>
     <row r="97">
@@ -1496,10 +1496,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.754575751779483</v>
+        <v>0.603530208285864</v>
       </c>
       <c r="C97" t="n">
-        <v>1.034759509767142</v>
+        <v>0.7391755351250213</v>
       </c>
     </row>
     <row r="98">
@@ -1507,10 +1507,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5140687728777169</v>
+        <v>0.7439331368771029</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5946973231759385</v>
+        <v>0.8403669883658353</v>
       </c>
     </row>
     <row r="99">
@@ -1518,10 +1518,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.045915898524798</v>
+        <v>0.4106405841959117</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7291194044856345</v>
+        <v>1.396366920492257</v>
       </c>
     </row>
     <row r="100">
@@ -1529,10 +1529,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6203112812159849</v>
+        <v>1.004429790910138</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7736784876761688</v>
+        <v>0.4022104236099763</v>
       </c>
     </row>
     <row r="101">
@@ -1540,10 +1540,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.401759113696259</v>
+        <v>0.5819225762028103</v>
       </c>
       <c r="C101" t="n">
-        <v>1.220318428865348</v>
+        <v>0.6327568357026606</v>
       </c>
     </row>
   </sheetData>
